--- a/doc/Journal de Travail.xlsx
+++ b/doc/Journal de Travail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TPI\TPI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68B39EA-3AAD-402C-8132-18ACC42C7CD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88754323-C099-4797-A026-31FA35DA9F51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30705" yWindow="255" windowWidth="26850" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -124,6 +124,18 @@
   </si>
   <si>
     <t>Feature Team</t>
+  </si>
+  <si>
+    <t>30min</t>
+  </si>
+  <si>
+    <t>Création des Readme pour le github</t>
+  </si>
+  <si>
+    <t>Remise en forme du journal de travail ainsi que les taches effectuer durant la journée</t>
+  </si>
+  <si>
+    <t>Travail effectuer durant la journée</t>
   </si>
 </sst>
 </file>
@@ -131,7 +143,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd\.mm\.yy;@"/>
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yy;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -268,18 +280,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -288,16 +296,12 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -592,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,45 +614,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -714,7 +718,7 @@
       <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
         <v>27</v>
       </c>
@@ -735,7 +739,7 @@
       <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
         <v>27</v>
       </c>
@@ -756,126 +760,163 @@
       <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="G8" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>44257</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>44257</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>44257</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>44257</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>44257</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="7" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="A14" s="5">
+        <v>44257</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>44257</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/Journal de Travail.xlsx
+++ b/doc/Journal de Travail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TPI\TPI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88754323-C099-4797-A026-31FA35DA9F51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB8B364-3B7A-4DAE-84C2-344B7FC36CC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30705" yWindow="255" windowWidth="26850" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Redaction du journal de travail</t>
   </si>
   <si>
-    <t>React native</t>
-  </si>
-  <si>
     <t>2h</t>
   </si>
   <si>
@@ -136,6 +133,30 @@
   </si>
   <si>
     <t>Travail effectuer durant la journée</t>
+  </si>
+  <si>
+    <t>React native (Frontend)</t>
+  </si>
+  <si>
+    <t>Référance (sur le git)</t>
+  </si>
+  <si>
+    <t>doc/Maquette app.pdf</t>
+  </si>
+  <si>
+    <t>front_mobile/chibre-manager/src/screen/Home</t>
+  </si>
+  <si>
+    <t>front_mobile/chibre-manager/src/screen/Game</t>
+  </si>
+  <si>
+    <t>front_mobile/chibre-manager/src/screen/CreateGame</t>
+  </si>
+  <si>
+    <t>doc/schéma ERD.svg</t>
+  </si>
+  <si>
+    <t>backend_api/chibre-manager/db/migrate/</t>
   </si>
 </sst>
 </file>
@@ -596,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,12 +629,13 @@
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="62.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="78.5703125" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="59.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -623,8 +645,9 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -632,8 +655,9 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -653,10 +677,13 @@
         <v>4</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44256</v>
       </c>
@@ -676,10 +703,11 @@
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44256</v>
       </c>
@@ -699,10 +727,13 @@
         <v>17</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44256</v>
       </c>
@@ -720,10 +751,13 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44256</v>
       </c>
@@ -741,10 +775,13 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44256</v>
       </c>
@@ -761,124 +798,140 @@
         <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>44257</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>44257</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="F10" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>44257</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>44257</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>44257</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>44257</v>
       </c>
@@ -886,18 +939,19 @@
         <v>13</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="E14" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>44257</v>
       </c>
@@ -905,22 +959,23 @@
         <v>13</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/doc/Journal de Travail.xlsx
+++ b/doc/Journal de Travail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TPI\TPI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB8B364-3B7A-4DAE-84C2-344B7FC36CC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE661D5-37EE-4444-8B2C-650F4F3AF834}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -93,15 +93,9 @@
     <t>Création du schéma ERD pour le backend</t>
   </si>
   <si>
-    <t>Rails, Documentation</t>
-  </si>
-  <si>
     <t>Création des migrations pour le backend</t>
   </si>
   <si>
-    <t>Rails</t>
-  </si>
-  <si>
     <t>Aide exterieure</t>
   </si>
   <si>
@@ -157,6 +151,69 @@
   </si>
   <si>
     <t>backend_api/chibre-manager/db/migrate/</t>
+  </si>
+  <si>
+    <t>Redation de la Planification détailé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travail effectuer durant la journée pour le besoin de mon travail </t>
+  </si>
+  <si>
+    <t>doc/Planification detaile.pdf</t>
+  </si>
+  <si>
+    <t>Rails (Backend)</t>
+  </si>
+  <si>
+    <t>Rails (Backend), Documentation</t>
+  </si>
+  <si>
+    <t>Création des vue JSON pour l'api (Game, Player, Team, Playe_Annouces. Announces)</t>
+  </si>
+  <si>
+    <t>Ces fichier permette de renvoyer une reponse après une requete api, par example une liste de toute les partie crée</t>
+  </si>
+  <si>
+    <t>/backend_api/chibre-manager/app/views/api/v1/</t>
+  </si>
+  <si>
+    <t>Creation des models (Game, Player, Team, Playe_Annouces. Announces)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ces fichier permettent de communiquer entre la base de donnée et les controller </t>
+  </si>
+  <si>
+    <t>/backend_api/chibre-manager/app/models/</t>
+  </si>
+  <si>
+    <t>Creation des controller  (Game, Player, Team, Playe_Annouces. Announces)</t>
+  </si>
+  <si>
+    <t>Ces fichier permettent de communiquer entre les  Model de l'application  et les vue, c'est aussi ici que l'onva appliquer toute les methodes logique</t>
+  </si>
+  <si>
+    <t>/backend_api/chibre-manager/app/controller/api/v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création des fichier API et Constante </t>
+  </si>
+  <si>
+    <t>L'API va me premettre d'aller interroger mon serveur RAILS à l'aide des URL API. Le fichier constante stockera tout les donnée fixe de mon application</t>
+  </si>
+  <si>
+    <t>/front_mobile/chibre-manager/src/common/</t>
+  </si>
+  <si>
+    <t>Mise a jour des screen et création du dossier components</t>
+  </si>
+  <si>
+    <t>Mise a jour des screen pour le bon fonctionnement de celle-ci. Ajout d'une components pour appliquer le DRY (dont repeat yourself)</t>
+  </si>
+  <si>
+    <t>/front_mobile/chibre-manager/src/ -&gt; components ou screens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Présent a la racine de mon projet, a la racine du backend et du frontend </t>
   </si>
 </sst>
 </file>
@@ -301,7 +358,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -330,6 +387,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -617,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,10 +738,10 @@
         <v>4</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -703,7 +764,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -727,10 +788,10 @@
         <v>17</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -751,10 +812,10 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -775,10 +836,10 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -798,10 +859,10 @@
         <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -810,25 +871,25 @@
         <v>44257</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -836,25 +897,25 @@
         <v>44257</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -862,25 +923,25 @@
         <v>44257</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -888,7 +949,7 @@
         <v>44257</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
@@ -901,10 +962,10 @@
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -912,23 +973,23 @@
         <v>44257</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -936,20 +997,24 @@
         <v>44257</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
@@ -959,7 +1024,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>18</v>
@@ -968,11 +1033,170 @@
         <v>20</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44258</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44258</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>44258</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>44258</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>44258</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>44258</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H2"/>

--- a/doc/Journal de Travail.xlsx
+++ b/doc/Journal de Travail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TPI\TPI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE661D5-37EE-4444-8B2C-650F4F3AF834}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B3B05D-F014-4AC3-BC64-3F4AF4B8A1E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32535" yWindow="1050" windowWidth="26850" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -214,6 +214,78 @@
   </si>
   <si>
     <t xml:space="preserve">Présent a la racine de mon projet, a la racine du backend et du frontend </t>
+  </si>
+  <si>
+    <t>Mise a jour du fichier API</t>
+  </si>
+  <si>
+    <t>https://github.com/nours33/Chibre-manager/commit/46b3eac659ba64d6fceb1aedd2eaf0e14875ba39</t>
+  </si>
+  <si>
+    <t>https://github.com/nours33/Chibre-manager/commit/f70e776ded0c41a8814a3110f498f676918d104b</t>
+  </si>
+  <si>
+    <t>Création du composant "create-team"</t>
+  </si>
+  <si>
+    <t>Création du composant "game-history"</t>
+  </si>
+  <si>
+    <t>Mise a jour globale des vue</t>
+  </si>
+  <si>
+    <t>https://github.com/nours33/Chibre-manager/commit/43f857b0139446abdfbaa0b577caadee2a3e5cf2</t>
+  </si>
+  <si>
+    <t>Création de deux nouvelles vu "GameHistoryScreen" et "WhoStartScreen"</t>
+  </si>
+  <si>
+    <t>https://github.com/nours33/Chibre-manager/commit/ecbc53d6802b26262d33d44a5d5a6762e33054d7</t>
+  </si>
+  <si>
+    <t>Mise a jour de la vue APP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le but était de passer les différentes informations pour la création des joueur et des equipes jusqu’à la derniere vu pour pouvoir envoyer ma requete API avec toutes les information necessaire. J'ai perdu beacuoup de temps a trouver la bonne synthax </t>
+  </si>
+  <si>
+    <t>Mise a jour des controller</t>
+  </si>
+  <si>
+    <t>Mise a jour des Models</t>
+  </si>
+  <si>
+    <t>Mise a jour des Vues</t>
+  </si>
+  <si>
+    <t>https://github.com/nours33/Chibre-manager/commit/0efba2e12bc481501c78edc41d36c94327b3eb89</t>
+  </si>
+  <si>
+    <t>https://github.com/nours33/Chibre-manager/commit/6414aa60e86fb7f50312c282688f59b3ec5b796d</t>
+  </si>
+  <si>
+    <t>https://github.com/nours33/Chibre-manager/commit/dae8256176ac75fec94ed69fccada783ca54af11</t>
+  </si>
+  <si>
+    <t>J'utilise ce composant pour afficher toute les parties qui ne sont pas terminé et ainsi reprendre une partie facilement</t>
+  </si>
+  <si>
+    <t>J'utilise ce composant dans deux vue différentes pour crée mes 4joueurs et mes 2 equipes</t>
+  </si>
+  <si>
+    <t>Création de différente methode pour des appeles API</t>
+  </si>
+  <si>
+    <t>Gamehistroy Screen utilise le composant game-histroy pour les meme raison que cifté si dessus</t>
+  </si>
+  <si>
+    <t>J'utilise le useContect dans mon app pour pouvoir passé différente information dans le but de crée mes joueur et mes equipe</t>
+  </si>
+  <si>
+    <t>Mise en relation entre les différentes table et verifie si certain parametre sont belle bien present dans la requete api</t>
+  </si>
+  <si>
+    <t>Rend un json avec la partie crée et ainsi que les deux equipe et les quatres joueurs qui corresponde a cette partie</t>
   </si>
 </sst>
 </file>
@@ -223,7 +295,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +342,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -351,14 +431,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -382,18 +463,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{07C691A2-B3C9-4ACE-B417-34D985FE291F}"/>
     <cellStyle name="Normal 2 2" xfId="3" xr:uid="{88F45427-AF1E-481F-AF9C-0632B92C123D}"/>
@@ -678,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,26 +783,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -1145,7 +1231,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="7">
         <v>44258</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1171,7 +1257,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="7">
         <v>44258</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1196,12 +1282,254 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>44259</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>44259</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>44259</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>44259</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>44259</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>44259</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>44259</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>44259</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>44259</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H22" r:id="rId1" xr:uid="{17194453-11B4-47C3-A33B-E1FAA1A33BAE}"/>
+    <hyperlink ref="H23" r:id="rId2" xr:uid="{FD1E1335-4686-4DE4-BC31-4E8EF0A40467}"/>
+    <hyperlink ref="H24" r:id="rId3" xr:uid="{FE8A3E43-7612-4978-9CB3-2E0D76895D09}"/>
+    <hyperlink ref="H25" r:id="rId4" xr:uid="{5CC54B2E-9E27-4F07-B439-360AE1B56EE3}"/>
+    <hyperlink ref="H26" r:id="rId5" xr:uid="{F4877F69-FCFD-4A26-AC95-EE80CE4E8D03}"/>
+    <hyperlink ref="H27" r:id="rId6" xr:uid="{5369B8B6-DC73-4223-903A-E7126E7C20DD}"/>
+    <hyperlink ref="H28" r:id="rId7" xr:uid="{0291FA85-99BF-4A59-A347-1CBB5ED63C24}"/>
+    <hyperlink ref="H29" r:id="rId8" xr:uid="{E64383E3-48C9-4877-9F09-D90AA4EF6F09}"/>
+    <hyperlink ref="H30" r:id="rId9" xr:uid="{BD7AFA4E-1CE0-4C9E-84C9-33025C1FA12B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId10"/>
 </worksheet>
 </file>
--- a/doc/Journal de Travail.xlsx
+++ b/doc/Journal de Travail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TPI\TPI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B3B05D-F014-4AC3-BC64-3F4AF4B8A1E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6AA2ED-06CF-4221-88C4-BC6A3F59A907}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32535" yWindow="1050" windowWidth="26850" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31170" yWindow="30" windowWidth="29940" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -286,6 +286,30 @@
   </si>
   <si>
     <t>Rend un json avec la partie crée et ainsi que les deux equipe et les quatres joueurs qui corresponde a cette partie</t>
+  </si>
+  <si>
+    <t>Création des compostant announces et team-view</t>
+  </si>
+  <si>
+    <t>https://github.com/nours33/Chibre-manager/commit/ee2b35606767de1903bcb604f31aff6df4723b65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise a jour du Screen AnnouncesScreen et de Game </t>
+  </si>
+  <si>
+    <t>Mise a jour des repons API pour les annonces et les points</t>
+  </si>
+  <si>
+    <t>https://github.com/nours33/Chibre-manager/commit/7cb6b7442a2622f1d83b71ce1239d160af05904b</t>
+  </si>
+  <si>
+    <t>Premet d'attribuer une annonce a un joueur d'une equipe en particulier</t>
+  </si>
+  <si>
+    <t>Permet de renvoyer les bonne annonce par rapport au bon joueur</t>
+  </si>
+  <si>
+    <t>Mise a jour des models pour les relation annonces player et player_annonces</t>
   </si>
 </sst>
 </file>
@@ -463,7 +487,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -473,7 +497,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -764,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,7 +1255,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="1">
         <v>44258</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1257,7 +1281,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="1">
         <v>44258</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1304,7 +1328,7 @@
       <c r="G22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="7" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1330,7 +1354,7 @@
       <c r="G23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="7" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1356,7 +1380,7 @@
       <c r="G24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1382,7 +1406,7 @@
       <c r="G25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1408,7 +1432,7 @@
       <c r="G26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="7" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1434,7 +1458,7 @@
       <c r="G27" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="7" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1458,7 +1482,7 @@
       <c r="G28" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="7" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1484,7 +1508,7 @@
       <c r="G29" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H29" s="7" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1510,8 +1534,110 @@
       <c r="G30" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H30" s="7" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>44260</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>44260</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>44260</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>44260</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1528,8 +1654,12 @@
     <hyperlink ref="H28" r:id="rId7" xr:uid="{0291FA85-99BF-4A59-A347-1CBB5ED63C24}"/>
     <hyperlink ref="H29" r:id="rId8" xr:uid="{E64383E3-48C9-4877-9F09-D90AA4EF6F09}"/>
     <hyperlink ref="H30" r:id="rId9" xr:uid="{BD7AFA4E-1CE0-4C9E-84C9-33025C1FA12B}"/>
+    <hyperlink ref="H31" r:id="rId10" xr:uid="{A97C1BC5-19D5-4E72-BF4D-9474FC3C8068}"/>
+    <hyperlink ref="H32" r:id="rId11" xr:uid="{56942E57-7B8F-4AC9-B634-63DAEDE44073}"/>
+    <hyperlink ref="H33" r:id="rId12" xr:uid="{CF49AF91-B316-4E69-B47C-DEF741E68752}"/>
+    <hyperlink ref="H34" r:id="rId13" xr:uid="{8923547E-3658-4238-B55E-E944CA6EE63E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId14"/>
 </worksheet>
 </file>
--- a/doc/Journal de Travail.xlsx
+++ b/doc/Journal de Travail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TPI\TPI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6AA2ED-06CF-4221-88C4-BC6A3F59A907}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5FABDA-B25F-4AA0-B246-F10C23EFE6DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31170" yWindow="30" windowWidth="29940" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="103">
   <si>
     <t>Date</t>
   </si>
@@ -310,6 +310,30 @@
   </si>
   <si>
     <t>Mise a jour des models pour les relation annonces player et player_annonces</t>
+  </si>
+  <si>
+    <t>Feature - Calcule des points</t>
+  </si>
+  <si>
+    <t>Feature - Qui commence ?</t>
+  </si>
+  <si>
+    <t>Feature - Atout de la partie ?</t>
+  </si>
+  <si>
+    <t>Mise a jour controller Game</t>
+  </si>
+  <si>
+    <t>Permet de calculer les points de chaque equipe et de renvoyer les points sur le serveur web</t>
+  </si>
+  <si>
+    <t>Permet de savoir qui doit commencer et choisir l'atout</t>
+  </si>
+  <si>
+    <t>Permet de savoir quel atout est présent pour la manche</t>
+  </si>
+  <si>
+    <t>Mise  a jour du controller pour les manche et l'atout d'une partie</t>
   </si>
 </sst>
 </file>
@@ -491,15 +515,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -788,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,26 +831,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -1560,7 +1584,7 @@
       <c r="G31" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="8" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1586,7 +1610,7 @@
       <c r="G32" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="8" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1612,7 +1636,7 @@
       <c r="G33" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H33" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1636,9 +1660,105 @@
       <c r="G34" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="H34" s="8" t="s">
         <v>91</v>
       </c>
+    </row>
+    <row r="35" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>44263</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>44263</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>44263</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>44263</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/Journal de Travail.xlsx
+++ b/doc/Journal de Travail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TPI\TPI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5FABDA-B25F-4AA0-B246-F10C23EFE6DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE053B70-19A7-46E8-AEC9-C9953F5708E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="125">
   <si>
     <t>Date</t>
   </si>
@@ -334,6 +334,72 @@
   </si>
   <si>
     <t>Mise  a jour du controller pour les manche et l'atout d'une partie</t>
+  </si>
+  <si>
+    <t>Mise a jour du rapport</t>
+  </si>
+  <si>
+    <t>Documentationt</t>
+  </si>
+  <si>
+    <t>https://github.com/nours33/Chibre-manager/blob/GameScreen/doc/%5BDossier%5D%20Compteur%20de%20compte%20au%20Chibre.docx</t>
+  </si>
+  <si>
+    <t>Feature - Manche suivante</t>
+  </si>
+  <si>
+    <t>Feature - Annonces des joueurs</t>
+  </si>
+  <si>
+    <t>Commentaire des codes de programmation</t>
+  </si>
+  <si>
+    <t>React native (Frontend) Rails (Backend)</t>
+  </si>
+  <si>
+    <t>Indentation et mise a prore du code de programmation</t>
+  </si>
+  <si>
+    <t>Permet de passer a la manche suivante en respectant le tour de chaque joueurs</t>
+  </si>
+  <si>
+    <t>Permet d'attribuer des annonces au joueurs pendant une partie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai commenté la plupart du code que j'ai fait </t>
+  </si>
+  <si>
+    <t>Feature - Option Screen</t>
+  </si>
+  <si>
+    <t>Feature - Historique des parties</t>
+  </si>
+  <si>
+    <t>Permet de supprimer et de reprendre une partie si elle n'est pas encore terminé</t>
+  </si>
+  <si>
+    <t>Permet d'avoir une liste des parties crée</t>
+  </si>
+  <si>
+    <t>https://github.com/nours33/Chibre-manager/commit/224211025e6aa1153ca9b8a9da8158e0004f4610</t>
+  </si>
+  <si>
+    <t>https://github.com/nours33/Chibre-manager/tree/GameScreen/front_mobile/chibre-manager/src/screens/GameOptionScreen</t>
+  </si>
+  <si>
+    <t>https://github.com/nours33/Chibre-manager/tree/GameScreen/front_mobile/chibre-manager/src/screens/GameHistoryScreen</t>
+  </si>
+  <si>
+    <t>https://github.com/nours33/Chibre-manager/tree/GameScreen/front_mobile/chibre-manager/src/screens/Game</t>
+  </si>
+  <si>
+    <t>https://github.com/nours33/Chibre-manager/tree/GameScreen/front_mobile/chibre-manager/src/screens/WhoStartScreen</t>
+  </si>
+  <si>
+    <t>https://github.com/nours33/Chibre-manager/tree/GameScreen/front_mobile/chibre-manager/src/screens/AtoutsScreen</t>
+  </si>
+  <si>
+    <t>https://github.com/nours33/Chibre-manager/blob/GameScreen/backend_api/chibre-manager/app/controllers/api/v1/games_controller.rb</t>
   </si>
 </sst>
 </file>
@@ -812,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1664,7 +1730,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>44263</v>
       </c>
@@ -1686,9 +1752,11 @@
       <c r="G35" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H35" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>44263</v>
       </c>
@@ -1710,9 +1778,11 @@
       <c r="G36" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H36" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>44263</v>
       </c>
@@ -1734,14 +1804,16 @@
       <c r="G37" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H37" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>44263</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>7</v>
@@ -1758,7 +1830,187 @@
       <c r="G38" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H38" s="7"/>
+      <c r="H38" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>44264</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>44264</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>44264</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>44265</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>44265</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>44265</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>44265</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1778,8 +2030,18 @@
     <hyperlink ref="H32" r:id="rId11" xr:uid="{56942E57-7B8F-4AC9-B634-63DAEDE44073}"/>
     <hyperlink ref="H33" r:id="rId12" xr:uid="{CF49AF91-B316-4E69-B47C-DEF741E68752}"/>
     <hyperlink ref="H34" r:id="rId13" xr:uid="{8923547E-3658-4238-B55E-E944CA6EE63E}"/>
+    <hyperlink ref="H39" r:id="rId14" xr:uid="{8CC90451-0285-4F38-994A-F64FA8221474}"/>
+    <hyperlink ref="H40" r:id="rId15" xr:uid="{FF3132A7-33B3-45D8-9DDA-7534F4DEF002}"/>
+    <hyperlink ref="H41" r:id="rId16" xr:uid="{588B5B47-79D5-44E0-A0E1-D46840E67915}"/>
+    <hyperlink ref="H42" r:id="rId17" xr:uid="{95C1C377-5E5E-4920-9D41-2275A4E6E034}"/>
+    <hyperlink ref="H43" r:id="rId18" xr:uid="{191FFB9F-7585-43C8-9293-64B82D467560}"/>
+    <hyperlink ref="H44" r:id="rId19" xr:uid="{B82D7A70-33B0-4026-AC7C-C489EB003564}"/>
+    <hyperlink ref="H35" r:id="rId20" xr:uid="{070592ED-5EE9-4EF6-9A55-C036BB989BC8}"/>
+    <hyperlink ref="H36" r:id="rId21" xr:uid="{F87C6616-2CEB-45F1-9558-551406BCF019}"/>
+    <hyperlink ref="H37" r:id="rId22" xr:uid="{EA33779D-F803-41AE-9B7B-DFE6300C6F24}"/>
+    <hyperlink ref="H38" r:id="rId23" xr:uid="{5B24E479-C046-4455-8F16-40DA7BCC77F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId24"/>
 </worksheet>
 </file>
--- a/doc/Journal de Travail.xlsx
+++ b/doc/Journal de Travail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TPI\TPI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B3B05D-F014-4AC3-BC64-3F4AF4B8A1E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE053B70-19A7-46E8-AEC9-C9953F5708E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32535" yWindow="1050" windowWidth="26850" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="125">
   <si>
     <t>Date</t>
   </si>
@@ -286,6 +286,120 @@
   </si>
   <si>
     <t>Rend un json avec la partie crée et ainsi que les deux equipe et les quatres joueurs qui corresponde a cette partie</t>
+  </si>
+  <si>
+    <t>Création des compostant announces et team-view</t>
+  </si>
+  <si>
+    <t>https://github.com/nours33/Chibre-manager/commit/ee2b35606767de1903bcb604f31aff6df4723b65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise a jour du Screen AnnouncesScreen et de Game </t>
+  </si>
+  <si>
+    <t>Mise a jour des repons API pour les annonces et les points</t>
+  </si>
+  <si>
+    <t>https://github.com/nours33/Chibre-manager/commit/7cb6b7442a2622f1d83b71ce1239d160af05904b</t>
+  </si>
+  <si>
+    <t>Premet d'attribuer une annonce a un joueur d'une equipe en particulier</t>
+  </si>
+  <si>
+    <t>Permet de renvoyer les bonne annonce par rapport au bon joueur</t>
+  </si>
+  <si>
+    <t>Mise a jour des models pour les relation annonces player et player_annonces</t>
+  </si>
+  <si>
+    <t>Feature - Calcule des points</t>
+  </si>
+  <si>
+    <t>Feature - Qui commence ?</t>
+  </si>
+  <si>
+    <t>Feature - Atout de la partie ?</t>
+  </si>
+  <si>
+    <t>Mise a jour controller Game</t>
+  </si>
+  <si>
+    <t>Permet de calculer les points de chaque equipe et de renvoyer les points sur le serveur web</t>
+  </si>
+  <si>
+    <t>Permet de savoir qui doit commencer et choisir l'atout</t>
+  </si>
+  <si>
+    <t>Permet de savoir quel atout est présent pour la manche</t>
+  </si>
+  <si>
+    <t>Mise  a jour du controller pour les manche et l'atout d'une partie</t>
+  </si>
+  <si>
+    <t>Mise a jour du rapport</t>
+  </si>
+  <si>
+    <t>Documentationt</t>
+  </si>
+  <si>
+    <t>https://github.com/nours33/Chibre-manager/blob/GameScreen/doc/%5BDossier%5D%20Compteur%20de%20compte%20au%20Chibre.docx</t>
+  </si>
+  <si>
+    <t>Feature - Manche suivante</t>
+  </si>
+  <si>
+    <t>Feature - Annonces des joueurs</t>
+  </si>
+  <si>
+    <t>Commentaire des codes de programmation</t>
+  </si>
+  <si>
+    <t>React native (Frontend) Rails (Backend)</t>
+  </si>
+  <si>
+    <t>Indentation et mise a prore du code de programmation</t>
+  </si>
+  <si>
+    <t>Permet de passer a la manche suivante en respectant le tour de chaque joueurs</t>
+  </si>
+  <si>
+    <t>Permet d'attribuer des annonces au joueurs pendant une partie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai commenté la plupart du code que j'ai fait </t>
+  </si>
+  <si>
+    <t>Feature - Option Screen</t>
+  </si>
+  <si>
+    <t>Feature - Historique des parties</t>
+  </si>
+  <si>
+    <t>Permet de supprimer et de reprendre une partie si elle n'est pas encore terminé</t>
+  </si>
+  <si>
+    <t>Permet d'avoir une liste des parties crée</t>
+  </si>
+  <si>
+    <t>https://github.com/nours33/Chibre-manager/commit/224211025e6aa1153ca9b8a9da8158e0004f4610</t>
+  </si>
+  <si>
+    <t>https://github.com/nours33/Chibre-manager/tree/GameScreen/front_mobile/chibre-manager/src/screens/GameOptionScreen</t>
+  </si>
+  <si>
+    <t>https://github.com/nours33/Chibre-manager/tree/GameScreen/front_mobile/chibre-manager/src/screens/GameHistoryScreen</t>
+  </si>
+  <si>
+    <t>https://github.com/nours33/Chibre-manager/tree/GameScreen/front_mobile/chibre-manager/src/screens/Game</t>
+  </si>
+  <si>
+    <t>https://github.com/nours33/Chibre-manager/tree/GameScreen/front_mobile/chibre-manager/src/screens/WhoStartScreen</t>
+  </si>
+  <si>
+    <t>https://github.com/nours33/Chibre-manager/tree/GameScreen/front_mobile/chibre-manager/src/screens/AtoutsScreen</t>
+  </si>
+  <si>
+    <t>https://github.com/nours33/Chibre-manager/blob/GameScreen/backend_api/chibre-manager/app/controllers/api/v1/games_controller.rb</t>
   </si>
 </sst>
 </file>
@@ -463,7 +577,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -472,10 +590,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -764,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,26 +897,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -1231,7 +1345,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="1">
         <v>44258</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1257,7 +1371,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="1">
         <v>44258</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1304,7 +1418,7 @@
       <c r="G22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="7" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1330,7 +1444,7 @@
       <c r="G23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="7" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1356,7 +1470,7 @@
       <c r="G24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1382,7 +1496,7 @@
       <c r="G25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1408,7 +1522,7 @@
       <c r="G26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="7" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1434,7 +1548,7 @@
       <c r="G27" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="7" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1458,7 +1572,7 @@
       <c r="G28" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="7" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1484,7 +1598,7 @@
       <c r="G29" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H29" s="7" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1510,8 +1624,392 @@
       <c r="G30" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H30" s="7" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>44260</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>44260</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>44260</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>44260</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>44263</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>44263</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>44263</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>44263</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>44264</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>44264</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>44264</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>44265</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>44265</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>44265</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>44265</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1528,8 +2026,22 @@
     <hyperlink ref="H28" r:id="rId7" xr:uid="{0291FA85-99BF-4A59-A347-1CBB5ED63C24}"/>
     <hyperlink ref="H29" r:id="rId8" xr:uid="{E64383E3-48C9-4877-9F09-D90AA4EF6F09}"/>
     <hyperlink ref="H30" r:id="rId9" xr:uid="{BD7AFA4E-1CE0-4C9E-84C9-33025C1FA12B}"/>
+    <hyperlink ref="H31" r:id="rId10" xr:uid="{A97C1BC5-19D5-4E72-BF4D-9474FC3C8068}"/>
+    <hyperlink ref="H32" r:id="rId11" xr:uid="{56942E57-7B8F-4AC9-B634-63DAEDE44073}"/>
+    <hyperlink ref="H33" r:id="rId12" xr:uid="{CF49AF91-B316-4E69-B47C-DEF741E68752}"/>
+    <hyperlink ref="H34" r:id="rId13" xr:uid="{8923547E-3658-4238-B55E-E944CA6EE63E}"/>
+    <hyperlink ref="H39" r:id="rId14" xr:uid="{8CC90451-0285-4F38-994A-F64FA8221474}"/>
+    <hyperlink ref="H40" r:id="rId15" xr:uid="{FF3132A7-33B3-45D8-9DDA-7534F4DEF002}"/>
+    <hyperlink ref="H41" r:id="rId16" xr:uid="{588B5B47-79D5-44E0-A0E1-D46840E67915}"/>
+    <hyperlink ref="H42" r:id="rId17" xr:uid="{95C1C377-5E5E-4920-9D41-2275A4E6E034}"/>
+    <hyperlink ref="H43" r:id="rId18" xr:uid="{191FFB9F-7585-43C8-9293-64B82D467560}"/>
+    <hyperlink ref="H44" r:id="rId19" xr:uid="{B82D7A70-33B0-4026-AC7C-C489EB003564}"/>
+    <hyperlink ref="H35" r:id="rId20" xr:uid="{070592ED-5EE9-4EF6-9A55-C036BB989BC8}"/>
+    <hyperlink ref="H36" r:id="rId21" xr:uid="{F87C6616-2CEB-45F1-9558-551406BCF019}"/>
+    <hyperlink ref="H37" r:id="rId22" xr:uid="{EA33779D-F803-41AE-9B7B-DFE6300C6F24}"/>
+    <hyperlink ref="H38" r:id="rId23" xr:uid="{5B24E479-C046-4455-8F16-40DA7BCC77F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId24"/>
 </worksheet>
 </file>
--- a/doc/Journal de Travail.xlsx
+++ b/doc/Journal de Travail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TPI\TPI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE053B70-19A7-46E8-AEC9-C9953F5708E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FC654B-E742-4359-BFA4-0CA77E6F10D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="128">
   <si>
     <t>Date</t>
   </si>
@@ -400,6 +400,15 @@
   </si>
   <si>
     <t>https://github.com/nours33/Chibre-manager/blob/GameScreen/backend_api/chibre-manager/app/controllers/api/v1/games_controller.rb</t>
+  </si>
+  <si>
+    <t>6h</t>
+  </si>
+  <si>
+    <t>Mise en place du serveur heroku</t>
+  </si>
+  <si>
+    <t>Permet d'avoir accès a l'API n'importe ou</t>
   </si>
 </sst>
 </file>
@@ -878,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2011,6 +2020,54 @@
       <c r="H45" s="7" t="s">
         <v>120</v>
       </c>
+    </row>
+    <row r="46" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44266</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>44266</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/Journal de Travail.xlsx
+++ b/doc/Journal de Travail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TPI\TPI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FC654B-E742-4359-BFA4-0CA77E6F10D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBED54E3-D28B-4D61-A9B7-D968EC602E55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1695" yWindow="2025" windowWidth="21225" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="130">
   <si>
     <t>Date</t>
   </si>
@@ -409,6 +409,12 @@
   </si>
   <si>
     <t>Permet d'avoir accès a l'API n'importe ou</t>
+  </si>
+  <si>
+    <t>Mise a jour du rapport de travail</t>
+  </si>
+  <si>
+    <t>Test de l'application</t>
   </si>
 </sst>
 </file>
@@ -887,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2068,6 +2074,50 @@
         <v>24</v>
       </c>
       <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>44267</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>44267</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
